--- a/渡邉制作用/提出者名簿.xlsx
+++ b/渡邉制作用/提出者名簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wattz\Documents\課題用\maikonn\ゲーム2024\渡邉制作用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46EB18-6CA6-4CEF-9E07-2393C786C7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5BB986-060C-4978-ACC4-CDFDC58BF094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>&lt;マイコン部2024　ゲーム提出者リスト&gt;</t>
     <rPh sb="5" eb="6">
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シミュレーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MetroDrive 日比谷編</t>
     <rPh sb="11" eb="14">
       <t>ヒビヤ</t>
@@ -231,6 +227,312 @@
     <t>モニター主人公</t>
     <rPh sb="4" eb="7">
       <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳イシン</t>
+    <rPh sb="0" eb="1">
+      <t>チン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cat adventure(仮)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンワールド2DRPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日比谷線運転ゲーム</t>
+    <rPh sb="0" eb="4">
+      <t>ヒビヤセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李平和</t>
+    <rPh sb="0" eb="1">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンカラコンソール（仮）</t>
+    <rPh sb="10" eb="11">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commandlineローグライク（仮）</t>
+    <rPh sb="18" eb="19">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H.Taido</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wow!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シューティングゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move ball</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8人</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ削減必須？</t>
+    <rPh sb="3" eb="5">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷上の秘塔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京山在宇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bullet Galaxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VS2017,C++,DX(11?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できたら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Morse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澤田研二</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fourier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形あわせ</t>
+    <rPh sb="0" eb="2">
+      <t>ハケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(過去作再掲候補)</t>
+    <rPh sb="1" eb="4">
+      <t>カコサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kolorz/陳イシン</t>
+    <rPh sb="7" eb="8">
+      <t>チン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいたまゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただのボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可思議</t>
+    <rPh sb="0" eb="4">
+      <t>フカシギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京六星運命教会</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロクボシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yamaura vs Touga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022再掲？</t>
+    <rPh sb="4" eb="6">
+      <t>サイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019再掲？</t>
+    <rPh sb="4" eb="6">
+      <t>サイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023再掲</t>
+    <rPh sb="4" eb="6">
+      <t>サイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大園晃弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS完全に理解した</t>
+    <rPh sb="3" eb="5">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ探索</t>
+    <rPh sb="3" eb="5">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023再掲、ゲーム？</t>
+    <rPh sb="4" eb="6">
+      <t>サイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村凛</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Solitia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023再掲、起動未確認</t>
+    <rPh sb="4" eb="6">
+      <t>サイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミカクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,17 +859,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="15.59765625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" customWidth="1"/>
@@ -610,24 +912,27 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>300</v>
       </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -635,58 +940,333 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>750</v>
       </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>1520</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
         <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
